--- a/biology/Médecine/1451_en_santé_et_médecine/1451_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1451_en_santé_et_médecine/1451_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1451_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1451_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1451 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1451_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1451_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,21 +523,23 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6 janvier et 7 juillet : pour remédier à la pénurie d'artisans, les échevins d'Apt en Provence « n'hésitent pas à transgresser les coutumes les plus formelles » et installent un serrurier lépreux dans une cave-atelier, où il exerce son métier, mais dont l'accès est interdit aux clients, qui traitent par l'intermédiaire de sa femme[1].
-Février : le sultan Mourad II meurt, près d'Andrinople, « frappé au milieu d'un festin d'une attaque d'apoplexie » ou, selon un autre historien, atteint « d'une faiblesse superstitieuse », mélancolie suicidaire qu'un derviche lui aurait suggérée en lui annonçant sa mort prochaine[2].
-25 août : des lunettes « pour voir de loin », donc à lentilles divergentes et à l'usage des myopes, sont mentionnées dans une lettre datée de Ferrare et adressée à Cosme de Médicis[3].
-1er septembre : fondation par John Westende de huit maisons de charité à Wokingham, dans le Berkshire en Angleterre[4].
-Fondation de l'université de Glasgow où l'enseignement de la médecine ne sera attesté qu'en 1469, lorsqu'un certain Andrew de Garleis sera enregistré comme doctor in medicinis[5].
-Fondation de l'hôpital Saint-Nicolas de Raguse par Johannes de Volzo[6].
-Fondation à Crémone, par le pape Nicolas V, du nouvel hôpital Santa Maria della Pieta, réunion de dix-huit plus petits établissements, vouée au service des pèlerins et des malades[7].
-Fondation d'un hôpital de deux lits à Chevetogne dans le comté de Namur, sur la route de Saint-Hubert à Namur[8].
-Fondation d'un hôpital de sept lits à Slins, aujourd'hui section de Juprelle, dans la principauté de Liège, par un certain Gilles Malparlant[9].
-Première mention à Kingcase, paroisse de Prestwick en Écosse, de l'hôpital St. Ninian, destiné aux malades et aux indigents[10].
-Au témoignage d'un certain Antoine Artesan,  « il y a, à l'Hôtel-Dieu, une personne appointée  qui est chargée de préparer les boissons et les médicaments », première mention connue d'un service de pharmacie hospitalière à Paris[11].
-Premier cas de rhinoplastie mentionné, et sans doute légendaire : ayant perdu un œil au cours d'un tournoi, Frédéric de Montefeltre se serait fait limer la racine du nez pour augmenter sa vision latérale[12].
-1451-1456 : à l'initiative de Francesco Sforza, duc de Milan, construction de l'Ospedale dei Poveri (hôpital des Pauvres), connu sous les noms de Ca' Granda ou Ospedale Maggiore (grand hôpital)[13],[14].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6 janvier et 7 juillet : pour remédier à la pénurie d'artisans, les échevins d'Apt en Provence « n'hésitent pas à transgresser les coutumes les plus formelles » et installent un serrurier lépreux dans une cave-atelier, où il exerce son métier, mais dont l'accès est interdit aux clients, qui traitent par l'intermédiaire de sa femme.
+Février : le sultan Mourad II meurt, près d'Andrinople, « frappé au milieu d'un festin d'une attaque d'apoplexie » ou, selon un autre historien, atteint « d'une faiblesse superstitieuse », mélancolie suicidaire qu'un derviche lui aurait suggérée en lui annonçant sa mort prochaine.
+25 août : des lunettes « pour voir de loin », donc à lentilles divergentes et à l'usage des myopes, sont mentionnées dans une lettre datée de Ferrare et adressée à Cosme de Médicis.
+1er septembre : fondation par John Westende de huit maisons de charité à Wokingham, dans le Berkshire en Angleterre.
+Fondation de l'université de Glasgow où l'enseignement de la médecine ne sera attesté qu'en 1469, lorsqu'un certain Andrew de Garleis sera enregistré comme doctor in medicinis.
+Fondation de l'hôpital Saint-Nicolas de Raguse par Johannes de Volzo.
+Fondation à Crémone, par le pape Nicolas V, du nouvel hôpital Santa Maria della Pieta, réunion de dix-huit plus petits établissements, vouée au service des pèlerins et des malades.
+Fondation d'un hôpital de deux lits à Chevetogne dans le comté de Namur, sur la route de Saint-Hubert à Namur.
+Fondation d'un hôpital de sept lits à Slins, aujourd'hui section de Juprelle, dans la principauté de Liège, par un certain Gilles Malparlant.
+Première mention à Kingcase, paroisse de Prestwick en Écosse, de l'hôpital St. Ninian, destiné aux malades et aux indigents.
+Au témoignage d'un certain Antoine Artesan,  « il y a, à l'Hôtel-Dieu, une personne appointée  qui est chargée de préparer les boissons et les médicaments », première mention connue d'un service de pharmacie hospitalière à Paris.
+Premier cas de rhinoplastie mentionné, et sans doute légendaire : ayant perdu un œil au cours d'un tournoi, Frédéric de Montefeltre se serait fait limer la racine du nez pour augmenter sa vision latérale.
+1451-1456 : à l'initiative de Francesco Sforza, duc de Milan, construction de l'Ospedale dei Poveri (hôpital des Pauvres), connu sous les noms de Ca' Granda ou Ospedale Maggiore (grand hôpital),.</t>
         </is>
       </c>
     </row>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1451_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1451_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Théodore Gaza traduit en latin, sous le titre d'Historia plantarum, les Περὶ Φυτῶν Ιστορίας (« Recherches sur les plantes ») de Théophraste (371-288 av. J.-C.), dont le livre dixième est consacré aux propriétés des plantes médicinales[15].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Théodore Gaza traduit en latin, sous le titre d'Historia plantarum, les Περὶ Φυτῶν Ιστορίας (« Recherches sur les plantes ») de Théophraste (371-288 av. J.-C.), dont le livre dixième est consacré aux propriétés des plantes médicinales.</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1451_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1451_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1451 : Abraham ben Mordecai Farissol (mort en 1525), philosophe, traducteur et exégète juif « qui s'est intéressé dès sa première jeunesse, à Avignon, aux sciences de la nature, à l'astronomie et à la médecine[16] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1451 : Abraham ben Mordecai Farissol (mort en 1525), philosophe, traducteur et exégète juif « qui s'est intéressé dès sa première jeunesse, à Avignon, aux sciences de la nature, à l'astronomie et à la médecine ».</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1451_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1451_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jean de Hueven (né à une date inconnue), docteur en théologie, en droit et en médecine, originaire de Arnhem aux Pays-Bas, étudiant ou professeur à Cologne, Heidelberg et Paris[17].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean de Hueven (né à une date inconnue), docteur en théologie, en droit et en médecine, originaire de Arnhem aux Pays-Bas, étudiant ou professeur à Cologne, Heidelberg et Paris.</t>
         </is>
       </c>
     </row>
